--- a/data/poultry_outbreak_data.xlsx
+++ b/data/poultry_outbreak_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/46ab969dfe25536d/Documents/Warwick University Work/Year 4/MA4K9 Project/Rproject-HPAI-modelling/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{3F4C8A5A-2565-4B91-8F8F-218C12F41045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C96F001-7956-4DF7-BD93-E2934639731A}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{3F4C8A5A-2565-4B91-8F8F-218C12F41045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18F667B5-A01B-4BC3-AB0B-CDA969E7097B}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="11686" windowHeight="13763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,10 +115,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -421,7 +417,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -439,7 +435,7 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>106</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
